--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFD8B4-B303-8B46-BD1C-B388B0A73B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0ACA34-571A-4048-95E6-94B207264D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,9 +534,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -980,7 +980,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1030,6 +1029,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,11 +2221,11 @@
     <v>Powered by Refinitiv</v>
     <v>22.591000000000001</v>
     <v>8.42</v>
-    <v>1.504</v>
-    <v>0.26</v>
-    <v>1.1872000000000001E-2</v>
-    <v>0.04</v>
-    <v>1.805E-3</v>
+    <v>1.468</v>
+    <v>-0.72</v>
+    <v>-3.7461000000000001E-2</v>
+    <v>0.2</v>
+    <v>1.0810999999999999E-2</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -2231,25 +2233,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>22.22</v>
+    <v>19.670000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.990619166405</v>
+    <v>45071.958333367969</v>
     <v>0</v>
-    <v>21.45</v>
-    <v>11483460000</v>
+    <v>18.454999999999998</v>
+    <v>9777830900</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>21.86</v>
+    <v>19.54</v>
     <v>0</v>
-    <v>21.9</v>
-    <v>22.16</v>
-    <v>22.2</v>
-    <v>524358600</v>
+    <v>19.22</v>
+    <v>18.5</v>
+    <v>18.7</v>
+    <v>528531400</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>2140224</v>
-    <v>3578023</v>
+    <v>3132550</v>
+    <v>2223509</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2414,9 +2416,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2837,10 +2839,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3314,7 @@
         <v>729344000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>121</v>
@@ -3346,15 +3348,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>17.597958761464728</v>
+        <v>14.984148066416875</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-46.412445134224122</v>
+        <v>-39.518841897648549</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-84.275471338093809</v>
+        <v>-71.758103199007792</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4509,10 +4511,10 @@
       <c r="E83" s="1">
         <v>-7504000</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="62"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4530,10 +4532,10 @@
       <c r="E84" s="1">
         <v>13485000</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="64"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4747,10 +4749,10 @@
       <c r="E93" s="1">
         <v>382000</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="65"/>
+      <c r="M93" s="64"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4796,7 +4798,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.504</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4843,7 +4845,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10569720000000001</v>
+        <v>0.1041474</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4862,10 +4864,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="64"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4912,7 +4914,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>1.0590726824384519E-2</v>
+        <v>1.2415219940540066E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4936,7 +4938,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11483460000</v>
+        <v>9777830900</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4960,7 +4962,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.98940927317561544</v>
+        <v>0.98758478005945993</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4984,7 +4986,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>11606380000</v>
+        <v>9900750900</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5003,10 +5005,10 @@
       <c r="E104" s="11">
         <v>223766000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="65"/>
+      <c r="M104" s="64"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5025,18 +5027,28 @@
         <f>(E106/D106)-1</f>
         <v>-0.28597105337623274</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="65">
+        <v>-19722000</v>
+      </c>
+      <c r="G105" s="65">
+        <v>39141000</v>
+      </c>
+      <c r="H105" s="65">
+        <v>146300000</v>
+      </c>
+      <c r="I105" s="65">
+        <v>171900000</v>
+      </c>
+      <c r="J105" s="65">
+        <v>289100000</v>
+      </c>
       <c r="K105" s="15"/>
       <c r="L105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.1059433992770162</v>
+        <v>0.10445525379932902</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5096,69 +5108,69 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-5315142605.0085068</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="J107" s="66">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>3729489062.4652739</v>
+      </c>
+      <c r="K107" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="L107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>-170644288.29420161</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>-213703650.54883343</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>-267628355.53664252</v>
-      </c>
-      <c r="I108" s="46">
-        <f>I107+I106</f>
-        <v>-335160099.05914319</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>-5734875005.0977592</v>
-      </c>
-      <c r="K108" s="47" t="s">
+      <c r="F108" s="67">
+        <f>F107+F105</f>
+        <v>-19722000</v>
+      </c>
+      <c r="G108" s="67">
+        <f>G107+G105</f>
+        <v>39141000</v>
+      </c>
+      <c r="H108" s="67">
+        <f>H107+H105</f>
+        <v>146300000</v>
+      </c>
+      <c r="I108" s="66">
+        <f>I107+I105</f>
+        <v>171900000</v>
+      </c>
+      <c r="J108" s="66">
+        <f>J107+J105</f>
+        <v>4018589062.4652739</v>
+      </c>
+      <c r="K108" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="M108" s="51">
+      <c r="M108" s="50">
         <f>M105</f>
-        <v>0.1059433992770162</v>
+        <v>0.10445525379932902</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="60"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
+      <c r="F110" s="51" t="s">
         <v>151</v>
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-4217151762.1811872</v>
+        <v>2683654847.5529432</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
+      <c r="F111" s="51" t="s">
         <v>152</v>
       </c>
       <c r="G111" s="40">
@@ -5167,7 +5179,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
+      <c r="F112" s="51" t="s">
         <v>139</v>
       </c>
       <c r="G112" s="40">
@@ -5176,55 +5188,55 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
+      <c r="F113" s="51" t="s">
         <v>153</v>
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>-3650209762.1811872</v>
+        <v>3250596847.5529432</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
+      <c r="F114" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G114" s="52" cm="1">
+        <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>528531400</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="G114" s="53">
-        <f>E34*(1+(5*K16))</f>
-        <v>905532948.27307594</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
+      <c r="G115" s="54">
+        <f>G113/G114</f>
+        <v>6.1502435759785383</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G115" s="55">
-        <f>G113/G114</f>
-        <v>-4.031007120328896</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
+      <c r="G116" s="55" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="56" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>22.16</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
+      <c r="G117" s="57">
+        <f>G115/G116-1</f>
+        <v>-0.66755440129845733</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="G117" s="58">
-        <f>G115/G116-1</f>
-        <v>-1.1819046534444448</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="59" t="str">
+      <c r="G118" s="58" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0ACA34-571A-4048-95E6-94B207264D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E2EDE-B3D0-3E4E-8673-A8D55BD6E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,6 +1011,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,9 +1032,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2221,11 +2221,11 @@
     <v>Powered by Refinitiv</v>
     <v>22.591000000000001</v>
     <v>8.42</v>
-    <v>1.468</v>
-    <v>-0.72</v>
-    <v>-3.7461000000000001E-2</v>
-    <v>0.2</v>
-    <v>1.0810999999999999E-2</v>
+    <v>1.4790000000000001</v>
+    <v>0.56000000000000005</v>
+    <v>3.0270000000000002E-2</v>
+    <v>0.24</v>
+    <v>1.2592000000000001E-2</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -2233,25 +2233,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>19.670000000000002</v>
+    <v>19.53</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.958333367969</v>
+    <v>45072.96861673594</v>
     <v>0</v>
-    <v>18.454999999999998</v>
-    <v>9777830900</v>
+    <v>18.239999999999998</v>
+    <v>10073810000</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>19.54</v>
+    <v>18.5</v>
     <v>0</v>
-    <v>19.22</v>
     <v>18.5</v>
-    <v>18.7</v>
+    <v>19.059999999999999</v>
+    <v>19.3</v>
     <v>528531400</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>3132550</v>
-    <v>2223509</v>
+    <v>2661131</v>
+    <v>2238662</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2416,9 +2416,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2842,7 +2842,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,15 +3348,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>14.984148066416875</v>
+        <v>15.437724601368489</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-39.518841897648549</v>
+        <v>-40.715094049841973</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-71.758103199007792</v>
+        <v>-73.930251502630981</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4511,10 +4511,10 @@
       <c r="E83" s="1">
         <v>-7504000</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="M83" s="62"/>
+      <c r="M83" s="65"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4532,10 +4532,10 @@
       <c r="E84" s="1">
         <v>13485000</v>
       </c>
-      <c r="L84" s="63" t="s">
+      <c r="L84" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="64"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4749,10 +4749,10 @@
       <c r="E93" s="1">
         <v>382000</v>
       </c>
-      <c r="L93" s="63" t="s">
+      <c r="L93" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="64"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.468</v>
+        <v>1.4790000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.1041474</v>
+        <v>0.10462095000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="63" t="s">
+      <c r="L98" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="64"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>1.2415219940540066E-2</v>
+        <v>1.2054845033652945E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9777830900</v>
+        <v>10073810000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.98758478005945993</v>
+        <v>0.98794515496634705</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>9900750900</v>
+        <v>10196730000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,10 +5005,10 @@
       <c r="E104" s="11">
         <v>223766000</v>
       </c>
-      <c r="L104" s="63" t="s">
+      <c r="L104" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="64"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5027,19 +5027,19 @@
         <f>(E106/D106)-1</f>
         <v>-0.28597105337623274</v>
       </c>
-      <c r="F105" s="65">
+      <c r="F105" s="59">
         <v>-19722000</v>
       </c>
-      <c r="G105" s="65">
+      <c r="G105" s="59">
         <v>39141000</v>
       </c>
-      <c r="H105" s="65">
+      <c r="H105" s="59">
         <v>146300000</v>
       </c>
-      <c r="I105" s="65">
+      <c r="I105" s="59">
         <v>171900000</v>
       </c>
-      <c r="J105" s="65">
+      <c r="J105" s="59">
         <v>289100000</v>
       </c>
       <c r="K105" s="15"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10445525379932902</v>
+        <v>0.10491415919694601</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5108,9 +5108,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="66">
+      <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3729489062.4652739</v>
+        <v>3708072549.0674305</v>
       </c>
       <c r="K107" s="46" t="s">
         <v>147</v>
@@ -5123,25 +5123,25 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="67">
+      <c r="F108" s="61">
         <f>F107+F105</f>
         <v>-19722000</v>
       </c>
-      <c r="G108" s="67">
+      <c r="G108" s="61">
         <f>G107+G105</f>
         <v>39141000</v>
       </c>
-      <c r="H108" s="67">
+      <c r="H108" s="61">
         <f>H107+H105</f>
         <v>146300000</v>
       </c>
-      <c r="I108" s="66">
+      <c r="I108" s="60">
         <f>I107+I105</f>
         <v>171900000</v>
       </c>
-      <c r="J108" s="66">
+      <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>4018589062.4652739</v>
+        <v>3997172549.0674305</v>
       </c>
       <c r="K108" s="46" t="s">
         <v>143</v>
@@ -5151,14 +5151,14 @@
       </c>
       <c r="M108" s="50">
         <f>M105</f>
-        <v>0.10445525379932902</v>
+        <v>0.10491415919694601</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="59" t="s">
+      <c r="F109" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="60"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="51" t="s">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2683654847.5529432</v>
+        <v>2665229845.2256374</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>3250596847.5529432</v>
+        <v>3232171845.2256374</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G115" s="54">
         <f>G113/G114</f>
-        <v>6.1502435759785383</v>
+        <v>6.1153828234720535</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G116" s="55" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>18.5</v>
+        <v>19.059999999999999</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G117" s="57">
         <f>G115/G116-1</f>
-        <v>-0.66755440129845733</v>
+        <v>-0.67915095364784606</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E2EDE-B3D0-3E4E-8673-A8D55BD6E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFB56A-0A43-5E41-9A17-391595D25CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1013,7 +1013,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2219,13 +2218,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>22.591000000000001</v>
+    <v>30.91</v>
     <v>8.42</v>
-    <v>1.4790000000000001</v>
-    <v>0.56000000000000005</v>
-    <v>3.0270000000000002E-2</v>
-    <v>0.24</v>
-    <v>1.2592000000000001E-2</v>
+    <v>1.5649999999999999</v>
+    <v>0.33</v>
+    <v>1.2078999999999999E-2</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -2233,25 +2230,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>19.53</v>
+    <v>28.469899999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.96861673594</v>
+    <v>45099.998947499997</v>
     <v>0</v>
-    <v>18.239999999999998</v>
-    <v>10073810000</v>
+    <v>26.7682</v>
+    <v>14613893210</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>18.5</v>
+    <v>26.97</v>
     <v>0</v>
-    <v>18.5</v>
-    <v>19.059999999999999</v>
-    <v>19.3</v>
+    <v>27.32</v>
+    <v>27.65</v>
     <v>528531400</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>2661131</v>
-    <v>2238662</v>
+    <v>2773</v>
+    <v>5118604</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2283,8 +2279,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2305,7 +2299,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2322,7 +2315,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2333,16 +2326,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2408,19 +2398,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2465,9 +2449,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2475,9 +2456,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2839,10 +2817,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,15 +3326,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>15.437724601368489</v>
+        <v>22.395226704671707</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-40.715094049841973</v>
+        <v>-59.064647484863919</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-73.930251502630981</v>
+        <v>-107.24927315959812</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4511,10 +4489,10 @@
       <c r="E83" s="1">
         <v>-7504000</v>
       </c>
-      <c r="L83" s="64" t="s">
+      <c r="L83" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="M83" s="65"/>
+      <c r="M83" s="64"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4532,10 +4510,10 @@
       <c r="E84" s="1">
         <v>13485000</v>
       </c>
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="M84" s="67"/>
+      <c r="M84" s="66"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4749,10 +4727,10 @@
       <c r="E93" s="1">
         <v>382000</v>
       </c>
-      <c r="L93" s="66" t="s">
+      <c r="L93" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="67"/>
+      <c r="M93" s="66"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4798,7 +4776,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.4790000000000001</v>
+        <v>1.5649999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4845,7 +4823,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10462095000000002</v>
+        <v>0.10832325000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4864,10 +4842,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="66" t="s">
+      <c r="L98" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="67"/>
+      <c r="M98" s="66"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4914,7 +4892,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>1.2054845033652945E-2</v>
+        <v>8.3410163546478178E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4938,7 +4916,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10073810000</v>
+        <v>14613893210</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4962,7 +4940,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.98794515496634705</v>
+        <v>0.99165898364535221</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4986,7 +4964,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>10196730000</v>
+        <v>14736813210</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,10 +4983,10 @@
       <c r="E104" s="11">
         <v>223766000</v>
       </c>
-      <c r="L104" s="66" t="s">
+      <c r="L104" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="67"/>
+      <c r="M104" s="66"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5048,7 +5026,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10491415919694601</v>
+        <v>0.10849524704323153</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5110,7 +5088,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3708072549.0674305</v>
+        <v>3549034352.177793</v>
       </c>
       <c r="K107" s="46" t="s">
         <v>147</v>
@@ -5123,15 +5101,15 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="61">
+      <c r="F108" s="60">
         <f>F107+F105</f>
         <v>-19722000</v>
       </c>
-      <c r="G108" s="61">
+      <c r="G108" s="60">
         <f>G107+G105</f>
         <v>39141000</v>
       </c>
-      <c r="H108" s="61">
+      <c r="H108" s="60">
         <f>H107+H105</f>
         <v>146300000</v>
       </c>
@@ -5141,7 +5119,7 @@
       </c>
       <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>3997172549.0674305</v>
+        <v>3838134352.177793</v>
       </c>
       <c r="K108" s="46" t="s">
         <v>143</v>
@@ -5151,14 +5129,14 @@
       </c>
       <c r="M108" s="50">
         <f>M105</f>
-        <v>0.10491415919694601</v>
+        <v>0.10849524704323153</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="62" t="s">
+      <c r="F109" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="63"/>
+      <c r="G109" s="62"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="51" t="s">
@@ -5166,7 +5144,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2665229845.2256374</v>
+        <v>2528571687.9775214</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5193,7 +5171,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>3232171845.2256374</v>
+        <v>3095513687.9775214</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5211,7 +5189,7 @@
       </c>
       <c r="G115" s="54">
         <f>G113/G114</f>
-        <v>6.1153828234720535</v>
+        <v>5.8568207829800114</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5220,7 +5198,7 @@
       </c>
       <c r="G116" s="55" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>19.059999999999999</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5229,7 +5207,7 @@
       </c>
       <c r="G117" s="57">
         <f>G115/G116-1</f>
-        <v>-0.67915095364784606</v>
+        <v>-0.78818008018155472</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFB56A-0A43-5E41-9A17-391595D25CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BAD75-6FFD-8F47-9791-7E212B610A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2220,9 +2220,9 @@
     <v>Powered by Refinitiv</v>
     <v>30.91</v>
     <v>8.42</v>
-    <v>1.5649999999999999</v>
-    <v>0.33</v>
-    <v>1.2078999999999999E-2</v>
+    <v>1.5429999999999999</v>
+    <v>1.28</v>
+    <v>4.9709000000000003E-2</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -2230,24 +2230,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>28.469899999999999</v>
+    <v>27.79</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998947499997</v>
+    <v>45105.999921388284</v>
     <v>0</v>
-    <v>26.7682</v>
-    <v>14613893210</v>
+    <v>25.64</v>
+    <v>14286203742</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>26.97</v>
+    <v>25.65</v>
     <v>0</v>
-    <v>27.32</v>
-    <v>27.65</v>
+    <v>25.75</v>
+    <v>27.03</v>
     <v>528531400</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>2773</v>
-    <v>5118604</v>
+    <v>642</v>
+    <v>5412452</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2820,7 +2820,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3326,15 +3326,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>22.395226704671707</v>
+        <v>21.893055255959361</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-59.064647484863919</v>
+        <v>-57.740232242888666</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-107.24927315959812</v>
+        <v>-104.84440699833408</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.5649999999999999</v>
+        <v>1.5429999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10832325000000001</v>
+        <v>0.10737615</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>8.3410163546478178E-3</v>
+        <v>8.530706113773618E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14613893210</v>
+        <v>14286203742</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99165898364535221</v>
+        <v>0.9914692938862264</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>14736813210</v>
+        <v>14409123742</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10849524704323153</v>
+        <v>0.10756013799803819</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="60">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3549034352.177793</v>
+        <v>3589232130.4870081</v>
       </c>
       <c r="K107" s="46" t="s">
         <v>147</v>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="J108" s="60">
         <f>J107+J105</f>
-        <v>3838134352.177793</v>
+        <v>3878332130.4870081</v>
       </c>
       <c r="K108" s="46" t="s">
         <v>143</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="M108" s="50">
         <f>M105</f>
-        <v>0.10849524704323153</v>
+        <v>0.10756013799803819</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2528571687.9775214</v>
+        <v>2563084358.525908</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>3095513687.9775214</v>
+        <v>3130026358.525908</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G115" s="54">
         <f>G113/G114</f>
-        <v>5.8568207829800114</v>
+        <v>5.922119969647798</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G116" s="55" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>27.65</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G117" s="57">
         <f>G115/G116-1</f>
-        <v>-0.78818008018155472</v>
+        <v>-0.78090566150026652</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BAD75-6FFD-8F47-9791-7E212B610A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B41A52-5881-7E46-9CB5-D50A11D482FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -507,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,99 +920,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>IOT</a:t>
+              <a:t>Samsara</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1120,9 +1098,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6928637651636836E-2"/>
-          <c:y val="9.7522449529554273E-2"/>
+          <c:y val="0.1483914708810247"/>
           <c:w val="0.86071647014272468"/>
-          <c:h val="0.80220519311070626"/>
+          <c:h val="0.75133621297376285"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1282,11 +1260,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1326,7 +1304,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2069,8 +2047,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2096,6 +2074,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2220,9 +2260,11 @@
     <v>Powered by Refinitiv</v>
     <v>30.91</v>
     <v>8.42</v>
-    <v>1.5429999999999999</v>
-    <v>1.28</v>
-    <v>4.9709000000000003E-2</v>
+    <v>1.5609999999999999</v>
+    <v>-0.22</v>
+    <v>-8.3079999999999994E-3</v>
+    <v>-0.21</v>
+    <v>-7.9969999999999989E-3</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -2230,24 +2272,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>27.79</v>
+    <v>27.15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45105.999921388284</v>
+    <v>45114.99483087891</v>
     <v>0</v>
-    <v>25.64</v>
-    <v>14286203742</v>
+    <v>26.24</v>
+    <v>13879234564</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>25.65</v>
+    <v>26.73</v>
     <v>0</v>
-    <v>25.75</v>
-    <v>27.03</v>
+    <v>26.48</v>
+    <v>26.26</v>
+    <v>26.05</v>
     <v>528531400</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>642</v>
-    <v>5412452</v>
+    <v>2014845</v>
+    <v>5484787</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2279,6 +2322,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2299,6 +2344,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2315,7 +2361,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2326,13 +2372,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2398,13 +2447,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2449,6 +2504,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2456,6 +2514,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2817,10 +2878,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2846,19 +2907,19 @@
       <c r="E1" s="8">
         <v>2023</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="24">
         <v>2024</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2025</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2026</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2027</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -2867,25 +2928,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2910,37 +2971,37 @@
       <c r="E3" s="1">
         <v>652545000</v>
       </c>
-      <c r="F3" s="29">
-        <v>845400000</v>
-      </c>
-      <c r="G3" s="29">
-        <v>1076000000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>1392000000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>1634000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>2003000000</v>
+      <c r="F3" s="25">
+        <v>872400000</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1110000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1441000000</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1724000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>2124000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2957,23 +3018,23 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.29554283612624421</v>
+        <v>0.33691929292232725</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27277028625502719</v>
+        <v>0.27235213204951858</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29368029739776946</v>
+        <v>0.29819819819819826</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17385057471264376</v>
+        <v>0.19639139486467738</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22582619339045285</v>
+        <v>0.23201856148491884</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -2988,7 +3049,7 @@
         <v>0.10638750186680206</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>-0.14456865440287603</v>
       </c>
       <c r="T4" s="16"/>
@@ -3043,16 +3104,16 @@
         <v>469889000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3084,7 +3145,7 @@
         <v>-0.37919999999999998</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-0.20881471775892851</v>
       </c>
     </row>
@@ -3107,7 +3168,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3128,16 +3189,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3207,21 +3268,21 @@
         <v>540883000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3263,13 +3324,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>1056000</v>
@@ -3292,16 +3353,16 @@
         <v>729344000</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3320,32 +3381,32 @@
       <c r="E16" s="1">
         <v>912000000</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <f>(E35+D35+C35/3)</f>
         <v>0.15215614220822252</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="34">
         <f>M101/E3</f>
-        <v>21.893055255959361</v>
-      </c>
-      <c r="M16" s="31">
+        <v>21.269390714816602</v>
+      </c>
+      <c r="M16" s="34">
         <f>M101/E28</f>
-        <v>-57.740232242888666</v>
-      </c>
-      <c r="N16" s="32">
-        <f>M101/E106</f>
-        <v>-104.84440699833408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>-56.095393958500054</v>
+      </c>
+      <c r="N16" s="35">
+        <f>M101/E107</f>
+        <v>-101.8577183786997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>-2000</v>
@@ -3354,7 +3415,7 @@
         <v>15620000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3371,10 +3432,19 @@
         <v>11768000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3390,14 +3460,41 @@
       <c r="E19" s="10">
         <v>-216447000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="38">
+        <v>-30951000</v>
+      </c>
+      <c r="G19" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="H19" s="38">
+        <v>100000000</v>
+      </c>
+      <c r="I19" s="38">
+        <v>350000000</v>
+      </c>
+      <c r="J19" s="38">
+        <v>315700000</v>
+      </c>
+      <c r="K19" s="27">
         <f>E40-E56-E61</f>
         <v>566942000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="34">
+        <f>M101/F3</f>
+        <v>15.909255575424117</v>
+      </c>
+      <c r="M19" s="34">
+        <f>M101/F28</f>
+        <v>-1559.464557752809</v>
+      </c>
+      <c r="N19" s="35">
+        <f>M101/F106</f>
+        <v>6063.4489139362167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3412,8 +3509,28 @@
         <f>(E19/D19)-1</f>
         <v>-0.36981168332052272</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-0.85700425508323053</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.6154566896061517</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>-9.7999999999999976E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3429,8 +3546,34 @@
       <c r="E21" s="2">
         <v>-0.33169999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="39">
+        <f t="shared" ref="F21:J21" si="4">F19/F3</f>
+        <v>-3.5477991746905087E-2</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" si="4"/>
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="4"/>
+        <v>6.9396252602359473E-2</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.20301624129930396</v>
+      </c>
+      <c r="J21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.14863465160075329</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3446,8 +3589,16 @@
       <c r="E22" s="10">
         <v>-259455000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="M22" s="36">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
+        <f>E107/M101</f>
+        <v>-9.817616336958105E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3464,7 +3615,7 @@
         <v>-0.39760000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3481,7 +3632,7 @@
         <v>15620000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3649,7 @@
         <v>-243835000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +3666,7 @@
         <v>-0.37369999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3532,7 +3683,7 @@
         <v>3587000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3548,10 +3699,25 @@
       <c r="E28" s="11">
         <v>-247422000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="40">
+        <v>-8900000</v>
+      </c>
+      <c r="G28" s="40">
+        <v>33200000</v>
+      </c>
+      <c r="H28" s="40">
+        <v>85232000</v>
+      </c>
+      <c r="I28" s="40">
+        <v>229400000</v>
+      </c>
+      <c r="J28" s="40">
+        <v>439400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3566,8 +3732,28 @@
         <f>(E28/D28)-1</f>
         <v>-0.30308373518410026</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.96402906774660302</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.7303370786516847</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5672289156626507</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6914773793880231</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.91543156059285091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3583,8 +3769,28 @@
       <c r="E30" s="2">
         <v>-0.37919999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="41">
+        <f t="shared" ref="F30:J30" si="6">F28/F3</f>
+        <v>-1.0201742320036681E-2</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="6"/>
+        <v>2.990990990990991E-2</v>
+      </c>
+      <c r="H30" s="41">
+        <f t="shared" si="6"/>
+        <v>5.9147814018043025E-2</v>
+      </c>
+      <c r="I30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.13306264501160092</v>
+      </c>
+      <c r="J30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.2068738229755179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3600,8 +3806,23 @@
       <c r="E31" s="12">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="G31" s="42">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H31" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="I31" s="42">
+        <v>0.43</v>
+      </c>
+      <c r="J31" s="42">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3654,7 +3875,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3662,11 +3883,11 @@
         <v>-5.6747818361829114E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17107208166216556</v>
       </c>
     </row>
@@ -3675,16 +3896,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3692,16 +3913,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3726,13 +3947,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>489192000</v>
@@ -3845,16 +4066,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3862,16 +4083,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3879,16 +4100,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3896,13 +4117,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>113101000</v>
@@ -3913,16 +4134,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3964,16 +4185,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4032,16 +4253,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4134,16 +4355,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4185,16 +4406,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4219,7 +4440,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>1000</v>
@@ -4253,10 +4474,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-96000</v>
@@ -4321,16 +4542,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4338,16 +4559,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4389,16 +4610,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4420,22 +4641,22 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>2.392691778250532E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10229487205137952</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.5339691136817285</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27197051544337936</v>
       </c>
     </row>
@@ -4489,10 +4710,10 @@
       <c r="E83" s="1">
         <v>-7504000</v>
       </c>
-      <c r="L83" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="M83" s="64"/>
+      <c r="L83" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="44"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4510,10 +4731,10 @@
       <c r="E84" s="1">
         <v>13485000</v>
       </c>
-      <c r="L84" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="M84" s="66"/>
+      <c r="L84" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="45"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4529,12 +4750,12 @@
         <v>-53113000</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M85" s="25">
+        <v>91</v>
+      </c>
+      <c r="L85" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" s="47">
         <f>E17</f>
         <v>15620000</v>
       </c>
@@ -4553,12 +4774,12 @@
         <v>8162000</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L86" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M86" s="25">
+        <v>91</v>
+      </c>
+      <c r="L86" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" s="47">
         <f>E56</f>
         <v>22047000</v>
       </c>
@@ -4579,10 +4800,10 @@
       <c r="E87" s="10">
         <v>-103021000</v>
       </c>
-      <c r="L87" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M87" s="25">
+      <c r="L87" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="M87" s="47">
         <f>E61</f>
         <v>100873000</v>
       </c>
@@ -4603,38 +4824,38 @@
       <c r="E88" s="1">
         <v>-33240000</v>
       </c>
-      <c r="L88" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="M88" s="35">
+      <c r="L88" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="M88" s="49">
         <f>M85/(M86+M87)</f>
         <v>0.12707452001301658</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
+        <v>0.25019813957368708</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12845681358916389</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5180870559945838E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0939015700066662E-2</v>
+      </c>
+      <c r="L89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
-        <v>0.25019813957368708</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="5"/>
-        <v>0.12845681358916389</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="5"/>
-        <v>4.5180870559945838E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="5"/>
-        <v>5.0939015700066662E-2</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M89" s="25">
+      <c r="M89" s="47">
         <f>E27</f>
         <v>3587000</v>
       </c>
@@ -4644,21 +4865,21 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L90" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="M90" s="47">
         <f>E25</f>
         <v>-243835000</v>
       </c>
@@ -4668,21 +4889,21 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-685615000</v>
       </c>
-      <c r="L91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M91" s="35">
+      <c r="L91" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M91" s="49">
         <f>M89/M90</f>
         <v>-1.4710767527221277E-2</v>
       </c>
@@ -4692,21 +4913,21 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>86625000</v>
       </c>
-      <c r="L92" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="M92" s="37">
+      <c r="L92" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="M92" s="49">
         <f>M88*(1-M91)</f>
         <v>0.12894388373556132</v>
       </c>
@@ -4716,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-100000</v>
@@ -4727,10 +4948,10 @@
       <c r="E93" s="1">
         <v>382000</v>
       </c>
-      <c r="L93" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="M93" s="66"/>
+      <c r="L93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="M93" s="45"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4748,11 +4969,12 @@
       <c r="E94" s="10">
         <v>-631848000</v>
       </c>
-      <c r="L94" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M94" s="38">
-        <v>4.095E-2</v>
+      <c r="L94" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="M94" s="68">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4760,7 +4982,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-168000</v>
@@ -4771,12 +4993,12 @@
       <c r="E95" s="1">
         <v>-1303000</v>
       </c>
-      <c r="L95" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M95" s="39" cm="1">
+      <c r="L95" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M95" s="51" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.5429999999999999</v>
+        <v>1.5609999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4784,10 +5006,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>846682000</v>
@@ -4795,10 +5017,10 @@
       <c r="E96" s="1">
         <v>18047000</v>
       </c>
-      <c r="L96" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M96" s="38">
+      <c r="L96" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="M96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4816,14 +5038,14 @@
         <v>-5000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="M97" s="37">
+        <v>91</v>
+      </c>
+      <c r="L97" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="M97" s="49">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10737615</v>
+        <v>0.10845399</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4831,21 +5053,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="M98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="M98" s="45"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4863,10 +5085,10 @@
       <c r="E99" s="1">
         <v>-2532000</v>
       </c>
-      <c r="L99" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M99" s="25">
+      <c r="L99" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="M99" s="47">
         <f>M86+M87</f>
         <v>122920000</v>
       </c>
@@ -4887,12 +5109,12 @@
       <c r="E100" s="10">
         <v>14212000</v>
       </c>
-      <c r="L100" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="M100" s="35">
+      <c r="L100" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="M100" s="49">
         <f>M99/M103</f>
-        <v>8.530706113773618E-3</v>
+        <v>8.7786489884943402E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4900,10 +5122,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-127000</v>
@@ -4911,12 +5133,12 @@
       <c r="E101" s="1">
         <v>113000</v>
       </c>
-      <c r="L101" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="M101" s="40" cm="1">
+      <c r="L101" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="M101" s="52" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14286203742</v>
+        <v>13879234564</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4935,12 +5157,12 @@
       <c r="E102" s="10">
         <v>-720544000</v>
       </c>
-      <c r="L102" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="M102" s="35">
+      <c r="L102" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M102" s="49">
         <f>M101/M103</f>
-        <v>0.9914692938862264</v>
+        <v>0.99122135101150566</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4959,12 +5181,12 @@
       <c r="E103" s="1">
         <v>944310000</v>
       </c>
-      <c r="L103" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="M103" s="41">
+      <c r="L103" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M103" s="53">
         <f>M99+M101</f>
-        <v>14409123742</v>
+        <v>14002154564</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4983,238 +5205,254 @@
       <c r="E104" s="11">
         <v>223766000</v>
       </c>
-      <c r="L104" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="M104" s="66"/>
+      <c r="L104" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="M104" s="45"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-194025400</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-203596200</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-355773400</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>-273876000</v>
+      </c>
+      <c r="F105" s="28">
+        <f>E105*(1+$M$106)</f>
+        <v>-347049071.14410424</v>
+      </c>
+      <c r="G105" s="28">
+        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
+        <v>-439772224.5906378</v>
+      </c>
+      <c r="H105" s="28">
+        <f t="shared" si="11"/>
+        <v>-557268771.48474944</v>
+      </c>
+      <c r="I105" s="28">
+        <f t="shared" si="11"/>
+        <v>-706157565.91084421</v>
+      </c>
+      <c r="J105" s="28">
+        <f t="shared" si="11"/>
+        <v>-894825860.35556257</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L105" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+      <c r="M105" s="55">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>0.10863386358491604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>-8.3787609824056752E-2</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>-6.3947300008338592E-2</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-0.28597105337623274</v>
       </c>
-      <c r="F105" s="59">
-        <v>-19722000</v>
-      </c>
-      <c r="G105" s="59">
-        <v>39141000</v>
-      </c>
-      <c r="H105" s="59">
-        <v>146300000</v>
-      </c>
-      <c r="I105" s="59">
-        <v>171900000</v>
-      </c>
-      <c r="J105" s="59">
-        <v>289100000</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M105" s="27">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10756013799803819</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="F106" s="31">
+        <v>2289000</v>
+      </c>
+      <c r="G106" s="31">
+        <v>40897000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>82915000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>148500000</v>
+      </c>
+      <c r="J106" s="31">
+        <v>259900000</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="L106" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="M106" s="57">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.26717591590392809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
         <v>-222515000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-203871000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-190834000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-136261000</v>
       </c>
-      <c r="F106" s="42">
-        <f>E106*(1+$M$106)</f>
-        <v>-170644288.29420161</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>-213703650.54883343</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>-267628355.53664252</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>-335160099.05914319</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>-419732400.08925223</v>
-      </c>
-      <c r="K106" s="43" t="s">
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="32">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>3185282714.2144208</v>
+      </c>
+      <c r="K107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="L107" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="45">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.25233403757642747</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="60">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>3589232130.4870081</v>
-      </c>
-      <c r="K107" s="46" t="s">
+      <c r="M107" s="59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="32">
+        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
+        <v>2289000</v>
+      </c>
+      <c r="G108" s="32">
+        <f t="shared" si="12"/>
+        <v>40897000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="12"/>
+        <v>82915000</v>
+      </c>
+      <c r="I108" s="32">
+        <f t="shared" si="12"/>
+        <v>148500000</v>
+      </c>
+      <c r="J108" s="32">
+        <f>J107+J106</f>
+        <v>3445182714.2144208</v>
+      </c>
+      <c r="K108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="L107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="M107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="60">
-        <f>F107+F105</f>
-        <v>-19722000</v>
-      </c>
-      <c r="G108" s="60">
-        <f>G107+G105</f>
-        <v>39141000</v>
-      </c>
-      <c r="H108" s="60">
-        <f>H107+H105</f>
-        <v>146300000</v>
-      </c>
-      <c r="I108" s="60">
-        <f>I107+I105</f>
-        <v>171900000</v>
-      </c>
-      <c r="J108" s="60">
-        <f>J107+J105</f>
-        <v>3878332130.4870081</v>
-      </c>
-      <c r="K108" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="L108" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="M108" s="50">
+      <c r="M108" s="57">
         <f>M105</f>
-        <v>0.10756013799803819</v>
+        <v>0.10863386358491604</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G109" s="61"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G110" s="52">
+        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
+        <v>2251671749.4206734</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G109" s="62"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G110" s="40">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2563084358.525908</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G111" s="40">
+      <c r="G111" s="52">
         <f>E40</f>
         <v>689862000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G112" s="40">
+      <c r="F112" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" s="52">
         <f>M99</f>
         <v>122920000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G113" s="40">
+      <c r="F113" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="52">
         <f>G110+G111-G112</f>
-        <v>3130026358.525908</v>
+        <v>2818613749.4206734</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="52" cm="1">
+      <c r="F114" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" s="62" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>528531400</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="53" t="s">
+      <c r="F115" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="64">
+        <f>G113/G114</f>
+        <v>5.3329163592185314</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="65" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G115" s="54">
-        <f>G113/G114</f>
-        <v>5.922119969647798</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="51" t="s">
+      <c r="G117" s="66">
+        <f>G115/G116-1</f>
+        <v>-0.79691864587895922</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="G116" s="55" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>27.03</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="G117" s="57">
-        <f>G115/G116-1</f>
-        <v>-0.78090566150026652</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G118" s="58" t="str">
+      <c r="G118" s="67" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5239,8 +5477,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:IOT/explorer/revenue_proj" xr:uid="{4C602DA0-A842-9945-8E2D-30787878B968}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{DB8CC5C6-0695-854E-91B1-273667424509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B41A52-5881-7E46-9CB5-D50A11D482FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418BCDD2-6F27-164F-B311-6FD195504CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,16 +938,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -955,60 +955,59 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,9 +2082,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2094,19 +2091,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2117,22 +2118,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2878,10 +2869,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4710,10 +4701,10 @@
       <c r="E83" s="1">
         <v>-7504000</v>
       </c>
-      <c r="L83" s="43" t="s">
+      <c r="L83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="M83" s="44"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4731,10 +4722,10 @@
       <c r="E84" s="1">
         <v>13485000</v>
       </c>
-      <c r="L84" s="45" t="s">
+      <c r="L84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="45"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4752,10 +4743,10 @@
       <c r="E85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="46" t="s">
+      <c r="L85" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="47">
+      <c r="M85" s="44">
         <f>E17</f>
         <v>15620000</v>
       </c>
@@ -4776,10 +4767,10 @@
       <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L86" s="46" t="s">
+      <c r="L86" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M86" s="47">
+      <c r="M86" s="44">
         <f>E56</f>
         <v>22047000</v>
       </c>
@@ -4800,10 +4791,10 @@
       <c r="E87" s="10">
         <v>-103021000</v>
       </c>
-      <c r="L87" s="46" t="s">
+      <c r="L87" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="M87" s="47">
+      <c r="M87" s="44">
         <f>E61</f>
         <v>100873000</v>
       </c>
@@ -4824,10 +4815,10 @@
       <c r="E88" s="1">
         <v>-33240000</v>
       </c>
-      <c r="L88" s="48" t="s">
+      <c r="L88" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="M88" s="49">
+      <c r="M88" s="46">
         <f>M85/(M86+M87)</f>
         <v>0.12707452001301658</v>
       </c>
@@ -4852,10 +4843,10 @@
         <f t="shared" si="9"/>
         <v>5.0939015700066662E-2</v>
       </c>
-      <c r="L89" s="46" t="s">
+      <c r="L89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M89" s="47">
+      <c r="M89" s="44">
         <f>E27</f>
         <v>3587000</v>
       </c>
@@ -4876,10 +4867,10 @@
       <c r="E90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L90" s="46" t="s">
+      <c r="L90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="47">
+      <c r="M90" s="44">
         <f>E25</f>
         <v>-243835000</v>
       </c>
@@ -4900,10 +4891,10 @@
       <c r="E91" s="1">
         <v>-685615000</v>
       </c>
-      <c r="L91" s="48" t="s">
+      <c r="L91" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="M91" s="49">
+      <c r="M91" s="46">
         <f>M89/M90</f>
         <v>-1.4710767527221277E-2</v>
       </c>
@@ -4924,10 +4915,10 @@
       <c r="E92" s="1">
         <v>86625000</v>
       </c>
-      <c r="L92" s="48" t="s">
+      <c r="L92" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="M92" s="49">
+      <c r="M92" s="46">
         <f>M88*(1-M91)</f>
         <v>0.12894388373556132</v>
       </c>
@@ -4948,10 +4939,10 @@
       <c r="E93" s="1">
         <v>382000</v>
       </c>
-      <c r="L93" s="45" t="s">
+      <c r="L93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="M93" s="45"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4969,12 +4960,12 @@
       <c r="E94" s="10">
         <v>-631848000</v>
       </c>
-      <c r="L94" s="46" t="s">
+      <c r="L94" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="M94" s="68">
+      <c r="M94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4993,10 +4984,10 @@
       <c r="E95" s="1">
         <v>-1303000</v>
       </c>
-      <c r="L95" s="46" t="s">
+      <c r="L95" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="M95" s="51" cm="1">
+      <c r="M95" s="48" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
         <v>1.5609999999999999</v>
       </c>
@@ -5017,10 +5008,10 @@
       <c r="E96" s="1">
         <v>18047000</v>
       </c>
-      <c r="L96" s="46" t="s">
+      <c r="L96" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="M96" s="50">
+      <c r="M96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5040,12 +5031,12 @@
       <c r="E97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L97" s="48" t="s">
+      <c r="L97" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="M97" s="49">
+      <c r="M97" s="46">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10845399</v>
+        <v>0.10917768</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5064,10 +5055,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="45" t="s">
+      <c r="L98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="M98" s="45"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5085,10 +5076,10 @@
       <c r="E99" s="1">
         <v>-2532000</v>
       </c>
-      <c r="L99" s="46" t="s">
+      <c r="L99" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="M99" s="47">
+      <c r="M99" s="44">
         <f>M86+M87</f>
         <v>122920000</v>
       </c>
@@ -5109,10 +5100,10 @@
       <c r="E100" s="10">
         <v>14212000</v>
       </c>
-      <c r="L100" s="48" t="s">
+      <c r="L100" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="M100" s="49">
+      <c r="M100" s="46">
         <f>M99/M103</f>
         <v>8.7786489884943402E-3</v>
       </c>
@@ -5133,10 +5124,10 @@
       <c r="E101" s="1">
         <v>113000</v>
       </c>
-      <c r="L101" s="46" t="s">
+      <c r="L101" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="M101" s="52" cm="1">
+      <c r="M101" s="49" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
         <v>13879234564</v>
       </c>
@@ -5157,10 +5148,10 @@
       <c r="E102" s="10">
         <v>-720544000</v>
       </c>
-      <c r="L102" s="48" t="s">
+      <c r="L102" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M102" s="49">
+      <c r="M102" s="46">
         <f>M101/M103</f>
         <v>0.99122135101150566</v>
       </c>
@@ -5181,10 +5172,10 @@
       <c r="E103" s="1">
         <v>944310000</v>
       </c>
-      <c r="L103" s="48" t="s">
+      <c r="L103" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="M103" s="53">
+      <c r="M103" s="50">
         <f>M99+M101</f>
         <v>14002154564</v>
       </c>
@@ -5205,10 +5196,10 @@
       <c r="E104" s="11">
         <v>223766000</v>
       </c>
-      <c r="L104" s="45" t="s">
+      <c r="L104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="M104" s="45"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5253,12 +5244,12 @@
       <c r="K105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="L105" s="54" t="s">
+      <c r="L105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="M105" s="55">
+      <c r="M105" s="52">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10863386358491604</v>
+        <v>0.10935120056442957</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5296,10 +5287,10 @@
       <c r="K106" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="L106" s="56" t="s">
+      <c r="L106" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="M106" s="57">
+      <c r="M106" s="54">
         <f>(SUM(F4:J4)/5)</f>
         <v>0.26717591590392809</v>
       </c>
@@ -5326,15 +5317,15 @@
       <c r="I107" s="29"/>
       <c r="J107" s="32">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>3185282714.2144208</v>
+        <v>3158194527.3739033</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="58" t="s">
+      <c r="L107" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="59">
+      <c r="M107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -5357,102 +5348,102 @@
       </c>
       <c r="J108" s="32">
         <f>J107+J106</f>
-        <v>3445182714.2144208</v>
+        <v>3418094527.3739033</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="L108" s="60" t="s">
+      <c r="L108" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="57">
+      <c r="M108" s="54">
         <f>M105</f>
-        <v>0.10863386358491604</v>
+        <v>0.10935120056442957</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="61" t="s">
+      <c r="F109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="62" t="s">
+      <c r="F110" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="52">
+      <c r="G110" s="49">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>2251671749.4206734</v>
+        <v>2228490286.0404987</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="62" t="s">
+      <c r="F111" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="52">
+      <c r="G111" s="49">
         <f>E40</f>
         <v>689862000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="62" t="s">
+      <c r="F112" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="49">
         <f>M99</f>
         <v>122920000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="62" t="s">
+      <c r="F113" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="52">
+      <c r="G113" s="49">
         <f>G110+G111-G112</f>
-        <v>2818613749.4206734</v>
+        <v>2795432286.0404987</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="62" t="s">
+      <c r="F114" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="G114" s="62" cm="1">
+      <c r="G114" s="58" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>528531400</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="63" t="s">
+      <c r="F115" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="64">
+      <c r="G115" s="60">
         <f>G113/G114</f>
-        <v>5.3329163592185314</v>
+        <v>5.2890562150905298</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="62" t="s">
+      <c r="F116" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="65" cm="1">
+      <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
         <v>26.26</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="63" t="s">
+      <c r="F117" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="66">
+      <c r="G117" s="62">
         <f>G115/G116-1</f>
-        <v>-0.79691864587895922</v>
+        <v>-0.79858887223569952</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="63" t="s">
+      <c r="F118" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="67" t="str">
+      <c r="G118" s="63" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Samsara.xlsx
+++ b/Technology/Software/Samsara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8E661-71B4-1947-B293-A6EB0F394F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEE7417-2C3C-EC4F-BC58-2312834B060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,6 +1673,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1692,7 +1694,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1705,6 +1707,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1830,13 +1834,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>34.74</v>
-    <v>9.4450000000000003</v>
+    <v>35.99</v>
+    <v>10.48</v>
     <v>1.7130000000000001</v>
-    <v>7.05</v>
-    <v>0.25599100000000002</v>
-    <v>-0.34</v>
-    <v>-9.8289999999999992E-3</v>
+    <v>-0.09</v>
+    <v>-2.6679999999999998E-3</v>
+    <v>2.9000000000000001E-2</v>
+    <v>8.6129999999999996E-4</v>
     <v>USD</v>
     <v>Samsara Inc. is engaged in providing Connected Operations Cloud, which allows businesses that depend on physical operations to harness IoT (Internet of Things) data to develop actionable business insights and improve their operations. The Company’s Connected Operations Cloud consolidates data from its IoT devices and an ecosystem of connected assets and third-party systems, and makes organizations access, analyze and act on data insights, using its cloud dashboard, custom alerts and reports, mobile apps, and workflows. It provides an end-to-end solution for operations. Its solution connects physical operations data to its Connected Operations Cloud, which consists of its Data Platform and Applications for video-based safety, vehicle telematics, apps and driver workflows, equipment monitoring, and site visibility. The Company sells subscriptions to its Connected Operations Cloud to large, medium-sized, and small businesses through a direct sales motion.</v>
     <v>2266</v>
@@ -1844,24 +1848,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 De Haro Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>34.74</v>
+    <v>34.69</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.937234073441</v>
+    <v>45269.041102187497</v>
     <v>0</v>
-    <v>29.63</v>
-    <v>18503990000</v>
+    <v>32.270000000000003</v>
+    <v>17995788644</v>
     <v>SAMSARA INC.</v>
     <v>SAMSARA INC.</v>
-    <v>31</v>
-    <v>27.54</v>
-    <v>34.590000000000003</v>
-    <v>34.25</v>
+    <v>33.4</v>
+    <v>33.729999999999997</v>
+    <v>33.64</v>
+    <v>33.698999999999998</v>
     <v>534952100</v>
     <v>IOT</v>
     <v>SAMSARA INC. (XNYS:IOT)</v>
-    <v>16766615</v>
-    <v>2385195</v>
+    <v>4699077</v>
+    <v>3574535</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2023,9 +2027,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8722,7 +8726,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>18503990000</v>
+        <v>17995788644</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>192</v>
@@ -8750,7 +8754,7 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>5894766000.593749</v>
+        <v>5826330284.614769</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>196</v>
@@ -8802,14 +8806,14 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>4181480377.6075869</v>
+        <v>4122993916.3054194</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.25599100000000002</v>
+        <v>-2.6679999999999998E-3</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>204</v>
@@ -8854,14 +8858,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>4802085377.6075869</v>
+        <v>4743598916.3054199</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>34.590000000000003</v>
+        <v>33.64</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>211</v>
@@ -8881,7 +8885,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>20.559988888888888</v>
+        <v>19.995320715555554</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>213</v>
@@ -8909,14 +8913,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>0.11194153422686812</v>
+        <v>0.11296274412271599</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>8.61893943129623</v>
+        <v>8.513966023312932</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>217</v>
@@ -8936,14 +8940,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>528.68542857142859</v>
+        <v>514.16538982857139</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>2.9723319132792443E-3</v>
+        <v>3.0562706135325514E-3</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>220</v>
@@ -8970,7 +8974,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.75082568860086063</v>
+        <v>-0.74690945233909245</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>223</v>
@@ -9297,7 +9301,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -9449,7 +9453,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11343977000000001</v>
+        <v>0.11450927</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -9532,7 +9536,7 @@
       </c>
       <c r="O20" s="102">
         <f>A3</f>
-        <v>18503990000</v>
+        <v>17995788644</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -9562,7 +9566,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>18609368000</v>
+        <v>18101166644</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -9590,7 +9594,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>5.6626318529463225E-3</v>
+        <v>5.8216137154303077E-3</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -9615,7 +9619,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.99433736814705365</v>
+        <v>0.99417838628456967</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -9659,7 +9663,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11194153422686812</v>
+        <v>0.11296274412271599</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="41"/>
